--- a/1.xlsx
+++ b/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kurku\PycharmProjects\parser_yaMarket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5757EB7-0C80-46B9-A7E3-38A0EAB18D1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C88A77-299D-408B-A7A3-881A80584DD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,79 +25,190 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t xml:space="preserve">                    Стабилизатор Ресанта АСН-1000/1-Ц</t>
-  </si>
-  <si>
-    <t>https://market.yandex.kz/product--stabilizator-napriazheniia-odnofaznyi-resanta-ach-1000-1-ts-1-kvt/12718909?show-uid=15874301878053693055916001&amp;nid=56405&amp;glfilter=7893318%3A7285665&amp;text=%D0%A1%D1%82%D0%B0%D0%B1%D0%B8%D0%BB%D0%B8%D0%B7%D0%B0%D1%82%D0%BE%D1%80%20%D0%A0%D0%B5%D1%81%D0%B0%D0%BD%D1%82%D0%B0%20%D0%90%D0%A1%D0%9D-1000%2F1-%D0%A6&amp;context=search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    Стабилизатор Ресанта АСН-1500/1-Ц</t>
-  </si>
-  <si>
-    <t>https://market.yandex.kz/product--stabilizator-napriazheniia-odnofaznyi-resanta-ach-1500-1-ts-1-5-kvt/12718458?show-uid=15874302645095435888716001&amp;nid=56405&amp;glfilter=7893318%3A7285665&amp;text=%D0%A1%D1%82%D0%B0%D0%B1%D0%B8%D0%BB%D0%B8%D0%B7%D0%B0%D1%82%D0%BE%D1%80%20%D0%A0%D0%B5%D1%81%D0%B0%D0%BD%D1%82%D0%B0%20%D0%90%D0%A1%D0%9D-1500%2F1-%D0%A6&amp;context=search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    Стабилизатор Ресанта АСН-2000/1-Ц</t>
-  </si>
-  <si>
-    <t>https://market.yandex.kz/product--stabilizator-napriazheniia-odnofaznyi-resanta-ach-2000-1-ts-2-kvt/12718922?show-uid=15874303345734597698516001&amp;nid=56405&amp;glfilter=7893318%3A7285665&amp;text=%D0%A1%D1%82%D0%B0%D0%B1%D0%B8%D0%BB%D0%B8%D0%B7%D0%B0%D1%82%D0%BE%D1%80%20%D0%A0%D0%B5%D1%81%D0%B0%D0%BD%D1%82%D0%B0%20%D0%90%D0%A1%D0%9D-2000%2F1-%D0%A6&amp;context=search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    Стабилизатор Ресанта АСН-3000C/1-Ц</t>
-  </si>
-  <si>
-    <t>https://market.yandex.kz/product--stabilizator-napriazheniia-odnofaznyi-resanta-ach-3000-1-ts-3-kvt/12718456?show-uid=15874303986876505055416001&amp;nid=56405&amp;glfilter=7893318%3A7285665&amp;text=%D0%A1%D1%82%D0%B0%D0%B1%D0%B8%D0%BB%D0%B8%D0%B7%D0%B0%D1%82%D0%BE%D1%80%20%D0%A0%D0%B5%D1%81%D0%B0%D0%BD%D1%82%D0%B0%20%D0%90%D0%A1%D0%9D-3000C%2F1-%D0%A6&amp;context=search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    Стабилизатор Ресанта АСН-500/1-Ц</t>
-  </si>
-  <si>
-    <t>https://market.yandex.kz/product--stabilizator-napriazheniia-odnofaznyi-resanta-ach-500-1-ts-0-5-kvt/12718917?show-uid=15874304560466170273616001&amp;nid=56405&amp;glfilter=7893318%3A7285665&amp;text=%D0%A1%D1%82%D0%B0%D0%B1%D0%B8%D0%BB%D0%B8%D0%B7%D0%B0%D1%82%D0%BE%D1%80%20%D0%A0%D0%B5%D1%81%D0%B0%D0%BD%D1%82%D0%B0%20%D0%90%D0%A1%D0%9D-500%2F1-%D0%A6&amp;context=search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    Стабилизатор Ресанта АСН-5000C/1-Ц</t>
-  </si>
-  <si>
-    <t>https://market.yandex.kz/product--stabilizator-napriazheniia-odnofaznyi-resanta-ach-5000-1-ts-5-kvt/12718932?show-uid=15874305065985396952616002&amp;nid=56405&amp;glfilter=7893318%3A7285665&amp;text=%D0%A1%D1%82%D0%B0%D0%B1%D0%B8%D0%BB%D0%B8%D0%B7%D0%B0%D1%82%D0%BE%D1%80%20%D0%A0%D0%B5%D1%81%D0%B0%D0%BD%D1%82%D0%B0%20%D0%90%D0%A1%D0%9D-5000C%2F1-%D0%A6&amp;context=search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            Газовая плита Artel Apetito 02-G</t>
-  </si>
-  <si>
-    <t>https://market.yandex.kz/product--gazovaia-plita-artel-apetito-02-g-wh/1887467716?show-uid=15874309458337054911116001&amp;nid=54954&amp;glfilter=12824260%3A12824262&amp;glfilter=7893318%3A13802742&amp;text=%D0%93%D0%B0%D0%B7%D0%BE%D0%B2%D0%B0%D1%8F%20%D0%BF%D0%BB%D0%B8%D1%82%D0%B0%20Artel%20Apetito%2002-G&amp;context=search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            Газовая плита Artel Apetito 10-G</t>
-  </si>
-  <si>
-    <t>https://market.yandex.kz/product--gazovaia-plita-artel-apetito-10-g-wh/1843511288?show-uid=15874315142240978998916001&amp;nid=54954&amp;glfilter=12824260%3A12824262&amp;glfilter=7893318%3A13802742&amp;text=%D0%93%D0%B0%D0%B7%D0%BE%D0%B2%D0%B0%D1%8F%20%D0%BF%D0%BB%D0%B8%D1%82%D0%B0%20Artel%20Apetito%2010-G&amp;context=search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            Газовая плита Artel Apetito G</t>
-  </si>
-  <si>
-    <t>https://market.yandex.kz/product--gazovaia-plita-artel-apetito-00-g-bn/1877533994?show-uid=15874317335939411378516008&amp;nid=54954&amp;glfilter=12824260%3A12824262&amp;glfilter=7893318%3A13802742&amp;text=%D0%93%D0%B0%D0%B7%D0%BE%D0%B2%D0%B0%D1%8F%20%D0%BF%D0%BB%D0%B8%D1%82%D0%B0%20Artel%20Apetito%20G&amp;context=search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            Газовая плита Artel Ottima G</t>
-  </si>
-  <si>
-    <t>https://market.yandex.kz/product--gazovaia-plita-artel-ottima-g-bn/1892346682?show-uid=15874321316329946314316002&amp;nid=54954&amp;glfilter=12824260%3A12824262&amp;glfilter=7893318%3A13802742&amp;text=%D0%93%D0%B0%D0%B7%D0%BE%D0%B2%D0%B0%D1%8F%20%D0%BF%D0%BB%D0%B8%D1%82%D0%B0%20Artel%20Ottima%20G&amp;context=search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            Комбинированная плита Gorenje K6121XC</t>
-  </si>
-  <si>
-    <t>https://market.yandex.kz/product--kombinirovannaia-plita-gorenje-k-6121-xc/1731955305/spec?track=tabs&amp;text=%D0%9A%D0%BE%D0%BC%D0%B1%D0%B8%D0%BD%D0%B8%D1%80%D0%BE%D0%B2%D0%B0%D0%BD%D0%BD%D0%B0%D1%8F%20%D0%BF%D0%BB%D0%B8%D1%82%D0%B0%20Gorenje%20K6121XC</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+  <si>
+    <t xml:space="preserve">                        Смартфон Apple iPhone 11 64GB</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-apple-iphone-11-64gb/558171067?show-uid=15874622619915831457516001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A153043&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Apple%20iPhone%2011%2064GB&amp;context=search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Смартфон Apple iPhone 11 Pro 256GB</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-apple-iphone-11-pro-256gb/558163129?show-uid=15874623769128213291016001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A153043&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Apple%20iPhone%2011%20Pro%20256GB&amp;context=search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Смартфон Apple iPhone 11 Pro 64GB</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-apple-iphone-11-pro-64gb/558163101?show-uid=15874624780512633522116001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A153043&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Apple%20iPhone%2011%20Pro%2064GB&amp;context=search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Смартфон Apple iPhone 11 Pro Max 256GB</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-apple-iphone-11-pro-max-256gb/558168099?show-uid=15874625956570609695016001&amp;nid=54726&amp;glfilter=13887626%3A13891809&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Apple%20iPhone%2011%20Pro%20Max%20256GB&amp;context=search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Смартфон Apple iPhone 11 Pro Max 64GB</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-apple-iphone-11-pro-max-64gb/558163103?show-uid=15874627179330338661216001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A153043&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Apple%20iPhone%2011%20Pro%20Max%2064GB&amp;context=search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Смартфон Apple iPhone 7 32GB</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-apple-iphone-7-32gb/14206636?show-uid=15874632098318054782716001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A153043&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Apple%20iPhone%207%2032GB&amp;context=search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Смартфон Apple iPhone 7 Plus 32GB</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-apple-iphone-7-plus-32gb/14206637?show-uid=15874636992553295765716001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A153043&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Apple%20iPhone%207%20Plus%2032GB&amp;context=search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Смартфон Apple iPhone 8 64GB</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-apple-iphone-8-64gb/1732171388?show-uid=15874637829349336542816001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A153043&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Apple%20iPhone%208%2064GB&amp;context=search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Смартфон Apple iPhone XR (1 SIM) 64GB</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-apple-iphone-xr-64gb/175941311?show-uid=15874638680439656226116001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A153043&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Apple%20iPhone%20XR%2064GB&amp;context=search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Смартфон Apple iPhone XS 64GB</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-apple-iphone-xs-64gb/175944272?show-uid=15874639709143309732216001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A153043&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Apple%20iPhone%20XS%2064GB&amp;context=search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Смартфон Apple iPhone XS Max (1 SIM) 64GB</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-apple-iphone-xs-max-64gb/175939244?show-uid=15874640693475551868316001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A153043&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Apple%20iPhone%20XS%20Max%2064GB&amp;context=search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Смартфон Apple iPhone XS Max (2 SIM) 64GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Смартфон Huawei P Smart (2019) 32GB</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-huawei-p-smart-2019-3-32gb/299703905?show-uid=15874642346810942164316001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A459710&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Huawei%20P%20Smart%20(2019)%2032GB&amp;context=search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Смартфон Huawei P Smart Z 64GB</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-huawei-p-smart-z-4-64gb/470161106?lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Huawei%20P%20Smart%20Z%2064GB&amp;glfilter=14871214%3A14896336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Смартфон Huawei P30 Lite 128 GB</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-huawei-p30-lite/419237008?lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Huawei%20P30%20Lite%20128%20GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Смартфон Huawei P30 Lite 6/256GB</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-huawei-p30-lite-new-edition/651246079?show-uid=15874653414550396998916003&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A459710&amp;glfilter=13887626%3A13899071&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Huawei%20P30%20Lite%206%2F256GB&amp;context=search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Смартфон Huawei Y5 2019 2/32GB</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-huawei-y5-2019-32gb/447725261?show-uid=15874654630278464512216003&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A459710&amp;glfilter=13887626%3A13899071&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Huawei%20Y5%202019%202%2F32GB&amp;context=search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Смартфон Huawei Y5 Lite 16GB</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-huawei-y5-lite/217969159?show-uid=15874655893300375627916002&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A459710&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Huawei%20Y5%20Lite%2016GB&amp;context=search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Смартфон Huawei Y6 (2019) 32GB</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-huawei-y6-2019/402895984?show-uid=15874656949599071978016001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A459710&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Huawei%20Y6%20(2019)%2032GB&amp;context=search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Смартфон Huawei Y6 S 64GB</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-huawei-y6s-3-64gb/651623113?lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Huawei%20Y6%20S%2064GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Смартфон Huawei Y7 (2019) 32GB</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-huawei-y7-2019/385691263?show-uid=15874659183098058033116001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A459710&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Huawei%20Y7%20(2019)%2032GB&amp;context=search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Смартфон Huawei Y9 Prime 2019</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-huawei-y9-prime-2019-4-128gb/549546876?show-uid=15874660601914938779516001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A459710&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Huawei%20Y9%20Prime%202019&amp;context=search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Смартфон Nokia 1 Plus 8GB</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-nokia-1-plus-8gb/396508048?lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Nokia%201%20Plus%208GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Смартфон Oppo A1K 32GB</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-oppo-a1k/439495683?show-uid=15874709954612121261816001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A6278641&amp;glfilter=13887626%3A13899071&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Oppo%20A1K%2032GB&amp;context=search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Смартфон Oppo A5 2020 3/64GB</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-oppo-a5-2020-3-64gb/573473024?lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Oppo%20A5%202020%203%2F64GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Смартфон Oppo A5S 3/32 GB</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-oppo-a5s/439496638?lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Oppo%20A5S%203%2F32%20GB&amp;glfilter=14871214%3A14898056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Смартфон Oppo A9 2020 4/128GB</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-oppo-a9-2020-4-128gb/573324046?show-uid=15874715268074518457216001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A6278641&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Oppo%20A9%202020%204%2F128GB&amp;context=search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Смартфон Oppo Reno 256GB</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-oppo-reno/453406059?lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Oppo%20Reno%20256GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Смартфон Oppo Reno2 Z 8/128GB</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-oppo-reno-2z-8-128gb/544612018?show-uid=15874725353006484555016001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A6278641&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Oppo%20Reno2%20Z%208%2F128GB&amp;context=search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Смартфон Samsung Galaxy A01 SM-A015 16 GB</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--smartfon-samsung-galaxy-a01/652049364?show-uid=15874727197369255673616001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A153061&amp;glfilter=13887626%3A13898977&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Samsung%20Galaxy%20A01%20SM-A015%2016%20GB&amp;context=search</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,14 +223,6 @@
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -166,11 +269,15 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -452,114 +559,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="255.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="45.6640625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" display="https://market.yandex.kz/product--stabilizator-napriazheniia-odnofaznyi-resanta-ach-1000-1-ts-1-kvt/12718909?show-uid=15874301878053693055916001&amp;nid=56405&amp;glfilter=7893318%3A7285665&amp;text=%D0%A1%D1%82%D0%B0%D0%B1%D0%B8%D0%BB%D0%B8%D0%B7%D0%B0%D1%82%D0%BE%D" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" display="https://market.yandex.kz/product--stabilizator-napriazheniia-odnofaznyi-resanta-ach-2000-1-ts-2-kvt/12718922?show-uid=15874303345734597698516001&amp;nid=56405&amp;glfilter=7893318%3A7285665&amp;text=%D0%A1%D1%82%D0%B0%D0%B1%D0%B8%D0%BB%D0%B8%D0%B7%D0%B0%D1%82%D0%BE%D" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B8" display="https://market.yandex.kz/product--gazovaia-plita-artel-apetito-10-g-wh/1843511288?show-uid=15874315142240978998916001&amp;nid=54954&amp;glfilter=12824260%3A12824262&amp;glfilter=7893318%3A13802742&amp;text=%D0%93%D0%B0%D0%B7%D0%BE%D0%B2%D0%B0%D1%8F%20%D0%BF%D0%BB%D0%B8%D" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B9" display="https://market.yandex.kz/product--gazovaia-plita-artel-apetito-00-g-bn/1877533994?show-uid=15874317335939411378516008&amp;nid=54954&amp;glfilter=12824260%3A12824262&amp;glfilter=7893318%3A13802742&amp;text=%D0%93%D0%B0%D0%B7%D0%BE%D0%B2%D0%B0%D1%8F%20%D0%BF%D0%BB%D0%B8%D" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B1" r:id="rId1" display="https://market.yandex.ru/product--smartfon-apple-iphone-11-64gb/558171067?show-uid=15874622619915831457516001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A153043&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Apple%20iPhone%2011%2064GB&amp;context=search" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://market.yandex.ru/product--smartfon-apple-iphone-11-pro-256gb/558163129?show-uid=15874623769128213291016001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A153043&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Apple%20iPhone%2011%20Pro%20256GB&amp;context=search" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://market.yandex.ru/product--smartfon-apple-iphone-11-pro-64gb/558163101?show-uid=15874624780512633522116001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A153043&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Apple%20iPhone%2011%20Pro%2064GB&amp;context=search" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://market.yandex.ru/product--smartfon-apple-iphone-11-pro-max-256gb/558168099?show-uid=15874625956570609695016001&amp;nid=54726&amp;glfilter=13887626%3A13891809&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Apple%20iPhone%2011%20Pro%20Max%20256GB&amp;context=search" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B5" r:id="rId5" display="https://market.yandex.ru/product--smartfon-apple-iphone-11-pro-max-64gb/558163103?show-uid=15874627179330338661216001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A153043&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Apple%20iPhone%2011%20Pro%20Max%2064GB&amp;context=search" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B6" r:id="rId6" display="https://market.yandex.ru/product--smartfon-apple-iphone-7-32gb/14206636?show-uid=15874632098318054782716001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A153043&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Apple%20iPhone%207%2032GB&amp;context=search" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B7" r:id="rId7" display="https://market.yandex.ru/product--smartfon-apple-iphone-7-plus-32gb/14206637?show-uid=15874636992553295765716001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A153043&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Apple%20iPhone%207%20Plus%2032GB&amp;context=search" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B8" r:id="rId8" display="https://market.yandex.ru/product--smartfon-apple-iphone-8-64gb/1732171388?show-uid=15874637829349336542816001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A153043&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Apple%20iPhone%208%2064GB&amp;context=search" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B9" r:id="rId9" display="https://market.yandex.ru/product--smartfon-apple-iphone-xr-64gb/175941311?show-uid=15874638680439656226116001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A153043&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Apple%20iPhone%20XR%2064GB&amp;context=search" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B10" r:id="rId10" display="https://market.yandex.ru/product--smartfon-apple-iphone-xs-64gb/175944272?show-uid=15874639709143309732216001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A153043&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Apple%20iPhone%20XS%2064GB&amp;context=search" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B11" r:id="rId11" display="https://market.yandex.ru/product--smartfon-apple-iphone-xs-max-64gb/175939244?show-uid=15874640693475551868316001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A153043&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Apple%20iPhone%20XS%20Max%2064GB&amp;context=search" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B12" r:id="rId12" display="https://market.yandex.ru/product--smartfon-apple-iphone-xs-max-64gb/175939244?show-uid=15874640693475551868316001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A153043&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Apple%20iPhone%20XS%20Max%2064GB&amp;context=search" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B13" r:id="rId13" display="https://market.yandex.ru/product--smartfon-huawei-p-smart-2019-3-32gb/299703905?show-uid=15874642346810942164316001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A459710&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Huawei%20P%20Smart%20(2019)%2032GB&amp;context=search" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B16" r:id="rId16" display="https://market.yandex.ru/product--smartfon-huawei-p30-lite-new-edition/651246079?show-uid=15874653414550396998916003&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A459710&amp;glfilter=13887626%3A13899071&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Huawei%20P30%20Lite%206%2F256GB&amp;context=search" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B17" r:id="rId17" display="https://market.yandex.ru/product--smartfon-huawei-y5-2019-32gb/447725261?show-uid=15874654630278464512216003&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A459710&amp;glfilter=13887626%3A13899071&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Huawei%20Y5%202019%202%2F32GB&amp;context=search" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B18" r:id="rId18" display="https://market.yandex.ru/product--smartfon-huawei-y5-lite/217969159?show-uid=15874655893300375627916002&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A459710&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Huawei%20Y5%20Lite%2016GB&amp;context=search" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B19" r:id="rId19" display="https://market.yandex.ru/product--smartfon-huawei-y6-2019/402895984?show-uid=15874656949599071978016001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A459710&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Huawei%20Y6%20(2019)%2032GB&amp;context=search" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B20" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B21" r:id="rId21" display="https://market.yandex.ru/product--smartfon-huawei-y7-2019/385691263?show-uid=15874659183098058033116001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A459710&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Huawei%20Y7%20(2019)%2032GB&amp;context=search" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B22" r:id="rId22" display="https://market.yandex.ru/product--smartfon-huawei-y9-prime-2019-4-128gb/549546876?show-uid=15874660601914938779516001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A459710&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Huawei%20Y9%20Prime%202019&amp;context=search" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B23" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B24" r:id="rId24" display="https://market.yandex.ru/product--smartfon-oppo-a1k/439495683?show-uid=15874709954612121261816001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A6278641&amp;glfilter=13887626%3A13899071&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Oppo%20A1K%2032GB&amp;context=search" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B25" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B26" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B27" r:id="rId27" display="https://market.yandex.ru/product--smartfon-oppo-a9-2020-4-128gb/573324046?show-uid=15874715268074518457216001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A6278641&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Oppo%20A9%202020%204%2F128GB&amp;context=search" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B28" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B30" r:id="rId29" display="https://market.yandex.ru/product--smartfon-samsung-galaxy-a01/652049364?show-uid=15874727197369255673616001&amp;nid=54726&amp;glfilter=4940921%3A13475069&amp;glfilter=7893318%3A153061&amp;glfilter=13887626%3A13898977&amp;lr=213&amp;text=%D0%A1%D0%BC%D0%B0%D1%80%D1%82%D1%84%D0%BE%D0%BD%20Samsung%20Galaxy%20A01%20SM-A015%2016%20GB&amp;context=search" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>